--- a/StructureDefinition-Patient.xlsx
+++ b/StructureDefinition-Patient.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://maximnikolaev.github.io/max-fhir-ru/StructureDefinition/Patient</t>
+    <t>https://maximnikolaev.github.io/max-fhir-ru/StructureDefinition-Patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T16:49:09+03:00</t>
+    <t>2022-06-17T17:13:24+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
